--- a/script/datastore.xlsx
+++ b/script/datastore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13040" activeTab="2"/>
+    <workbookView windowWidth="30240" windowHeight="12440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group_info" sheetId="1" r:id="rId1"/>
@@ -4063,30 +4063,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4099,9 +4084,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4114,10 +4098,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4130,14 +4123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4159,9 +4145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4169,7 +4155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4182,8 +4168,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4197,19 +4191,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4221,10 +4206,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4243,13 +4236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4261,7 +4260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4279,13 +4278,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4297,13 +4338,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4315,91 +4392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4411,13 +4410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4434,8 +4427,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4443,8 +4436,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4464,17 +4481,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4494,185 +4507,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5027,7 +5020,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -5116,7 +5109,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -5134,7 +5127,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="B2">
         <v>10001</v>
@@ -5145,7 +5138,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="B3">
         <v>10001</v>
@@ -5156,7 +5149,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="B4">
         <v>10001</v>
@@ -5167,7 +5160,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="B5">
         <v>10002</v>
@@ -5178,7 +5171,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="B6">
         <v>10002</v>
@@ -5189,7 +5182,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="B7">
         <v>10002</v>
@@ -5200,7 +5193,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="B8">
         <v>10002</v>
@@ -5211,7 +5204,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="B9">
         <v>10003</v>
@@ -5222,7 +5215,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="B10">
         <v>10003</v>
@@ -5233,7 +5226,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="B11">
         <v>10003</v>
@@ -5244,7 +5237,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="B12">
         <v>10003</v>
@@ -5255,7 +5248,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="B13">
         <v>10004</v>
@@ -5266,7 +5259,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="B14">
         <v>10004</v>
@@ -5277,7 +5270,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="B15">
         <v>10004</v>
@@ -5288,7 +5281,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="B16">
         <v>10005</v>
@@ -5299,7 +5292,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="B17">
         <v>10005</v>
@@ -5310,7 +5303,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="B18">
         <v>10005</v>
@@ -5321,7 +5314,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="B19">
         <v>10006</v>
@@ -5332,7 +5325,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="B20">
         <v>10006</v>
@@ -5343,7 +5336,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>10020</v>
+        <v>20020</v>
       </c>
       <c r="B21">
         <v>10006</v>
@@ -5354,7 +5347,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="B22">
         <v>10007</v>
@@ -5365,7 +5358,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="B23">
         <v>10007</v>
@@ -5376,7 +5369,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="B24">
         <v>10008</v>
@@ -5387,7 +5380,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="B25">
         <v>10008</v>
@@ -5408,7 +5401,7 @@
   <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -5444,13 +5437,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>10001</v>
+        <v>50001</v>
       </c>
       <c r="B2">
         <v>10001</v>
       </c>
       <c r="C2">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -5473,13 +5466,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>10002</v>
+        <v>50002</v>
       </c>
       <c r="B3">
         <v>10001</v>
       </c>
       <c r="C3">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -5502,13 +5495,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>10003</v>
+        <v>50003</v>
       </c>
       <c r="B4">
         <v>10001</v>
       </c>
       <c r="C4">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -5531,13 +5524,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>10004</v>
+        <v>50004</v>
       </c>
       <c r="B5">
         <v>10001</v>
       </c>
       <c r="C5">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -5560,13 +5553,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>10005</v>
+        <v>50005</v>
       </c>
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -5589,13 +5582,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>10006</v>
+        <v>50006</v>
       </c>
       <c r="B7">
         <v>10001</v>
       </c>
       <c r="C7">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
@@ -5618,13 +5611,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>10007</v>
+        <v>50007</v>
       </c>
       <c r="B8">
         <v>10001</v>
       </c>
       <c r="C8">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D8" t="s">
         <v>67</v>
@@ -5647,13 +5640,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>10008</v>
+        <v>50008</v>
       </c>
       <c r="B9">
         <v>10001</v>
       </c>
       <c r="C9">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D9" t="s">
         <v>71</v>
@@ -5676,13 +5669,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>10009</v>
+        <v>50009</v>
       </c>
       <c r="B10">
         <v>10001</v>
       </c>
       <c r="C10">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D10" t="s">
         <v>75</v>
@@ -5705,13 +5698,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>10010</v>
+        <v>50010</v>
       </c>
       <c r="B11">
         <v>10001</v>
       </c>
       <c r="C11">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D11" t="s">
         <v>79</v>
@@ -5734,13 +5727,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>10011</v>
+        <v>50011</v>
       </c>
       <c r="B12">
         <v>10001</v>
       </c>
       <c r="C12">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -5763,13 +5756,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>10012</v>
+        <v>50012</v>
       </c>
       <c r="B13">
         <v>10001</v>
       </c>
       <c r="C13">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D13" t="s">
         <v>87</v>
@@ -5792,13 +5785,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>10013</v>
+        <v>50013</v>
       </c>
       <c r="B14">
         <v>10001</v>
       </c>
       <c r="C14">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
@@ -5821,13 +5814,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>10014</v>
+        <v>50014</v>
       </c>
       <c r="B15">
         <v>10001</v>
       </c>
       <c r="C15">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
@@ -5850,13 +5843,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>10015</v>
+        <v>50015</v>
       </c>
       <c r="B16">
         <v>10001</v>
       </c>
       <c r="C16">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D16" t="s">
         <v>98</v>
@@ -5879,13 +5872,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>10016</v>
+        <v>50016</v>
       </c>
       <c r="B17">
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -5908,13 +5901,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>10017</v>
+        <v>50017</v>
       </c>
       <c r="B18">
         <v>10001</v>
       </c>
       <c r="C18">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -5937,13 +5930,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>10018</v>
+        <v>50018</v>
       </c>
       <c r="B19">
         <v>10001</v>
       </c>
       <c r="C19">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -5966,13 +5959,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>10019</v>
+        <v>50019</v>
       </c>
       <c r="B20">
         <v>10001</v>
       </c>
       <c r="C20">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
@@ -5995,13 +5988,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>10020</v>
+        <v>50020</v>
       </c>
       <c r="B21">
         <v>10001</v>
       </c>
       <c r="C21">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D21" t="s">
         <v>118</v>
@@ -6024,13 +6017,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>10021</v>
+        <v>50021</v>
       </c>
       <c r="B22">
         <v>10001</v>
       </c>
       <c r="C22">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D22" t="s">
         <v>122</v>
@@ -6053,13 +6046,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>10022</v>
+        <v>50022</v>
       </c>
       <c r="B23">
         <v>10001</v>
       </c>
       <c r="C23">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D23" t="s">
         <v>126</v>
@@ -6082,13 +6075,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>10023</v>
+        <v>50023</v>
       </c>
       <c r="B24">
         <v>10001</v>
       </c>
       <c r="C24">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D24" t="s">
         <v>130</v>
@@ -6111,13 +6104,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>10024</v>
+        <v>50024</v>
       </c>
       <c r="B25">
         <v>10001</v>
       </c>
       <c r="C25">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D25" t="s">
         <v>134</v>
@@ -6140,13 +6133,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>10025</v>
+        <v>50025</v>
       </c>
       <c r="B26">
         <v>10001</v>
       </c>
       <c r="C26">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
@@ -6169,13 +6162,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>10026</v>
+        <v>50026</v>
       </c>
       <c r="B27">
         <v>10001</v>
       </c>
       <c r="C27">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D27" t="s">
         <v>142</v>
@@ -6198,13 +6191,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>10027</v>
+        <v>50027</v>
       </c>
       <c r="B28">
         <v>10001</v>
       </c>
       <c r="C28">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D28" t="s">
         <v>146</v>
@@ -6227,13 +6220,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>10028</v>
+        <v>50028</v>
       </c>
       <c r="B29">
         <v>10001</v>
       </c>
       <c r="C29">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D29" t="s">
         <v>150</v>
@@ -6256,13 +6249,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>10029</v>
+        <v>50029</v>
       </c>
       <c r="B30">
         <v>10001</v>
       </c>
       <c r="C30">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D30" t="s">
         <v>154</v>
@@ -6285,13 +6278,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>10030</v>
+        <v>50030</v>
       </c>
       <c r="B31">
         <v>10001</v>
       </c>
       <c r="C31">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -6314,13 +6307,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>10031</v>
+        <v>50031</v>
       </c>
       <c r="B32">
         <v>10001</v>
       </c>
       <c r="C32">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D32" t="s">
         <v>162</v>
@@ -6343,13 +6336,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>10032</v>
+        <v>50032</v>
       </c>
       <c r="B33">
         <v>10001</v>
       </c>
       <c r="C33">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D33" t="s">
         <v>166</v>
@@ -6372,13 +6365,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>10033</v>
+        <v>50033</v>
       </c>
       <c r="B34">
         <v>10001</v>
       </c>
       <c r="C34">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D34" t="s">
         <v>170</v>
@@ -6401,13 +6394,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>10034</v>
+        <v>50034</v>
       </c>
       <c r="B35">
         <v>10001</v>
       </c>
       <c r="C35">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D35" t="s">
         <v>174</v>
@@ -6430,13 +6423,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>10035</v>
+        <v>50035</v>
       </c>
       <c r="B36">
         <v>10001</v>
       </c>
       <c r="C36">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="D36" t="s">
         <v>178</v>
@@ -6459,13 +6452,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>10036</v>
+        <v>50036</v>
       </c>
       <c r="B37">
         <v>10001</v>
       </c>
       <c r="C37">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D37" t="s">
         <v>182</v>
@@ -6488,13 +6481,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>10037</v>
+        <v>50037</v>
       </c>
       <c r="B38">
         <v>10001</v>
       </c>
       <c r="C38">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D38" t="s">
         <v>186</v>
@@ -6517,13 +6510,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>10038</v>
+        <v>50038</v>
       </c>
       <c r="B39">
         <v>10001</v>
       </c>
       <c r="C39">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D39" t="s">
         <v>190</v>
@@ -6546,13 +6539,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>10039</v>
+        <v>50039</v>
       </c>
       <c r="B40">
         <v>10001</v>
       </c>
       <c r="C40">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D40" t="s">
         <v>194</v>
@@ -6575,13 +6568,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>10040</v>
+        <v>50040</v>
       </c>
       <c r="B41">
         <v>10001</v>
       </c>
       <c r="C41">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D41" t="s">
         <v>198</v>
@@ -6604,13 +6597,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>10041</v>
+        <v>50041</v>
       </c>
       <c r="B42">
         <v>10001</v>
       </c>
       <c r="C42">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D42" t="s">
         <v>202</v>
@@ -6633,13 +6626,13 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
-        <v>10042</v>
+        <v>50042</v>
       </c>
       <c r="B43">
         <v>10001</v>
       </c>
       <c r="C43">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D43" t="s">
         <v>206</v>
@@ -6662,13 +6655,13 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
-        <v>10043</v>
+        <v>50043</v>
       </c>
       <c r="B44">
         <v>10001</v>
       </c>
       <c r="C44">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D44" t="s">
         <v>210</v>
@@ -6691,13 +6684,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
-        <v>10044</v>
+        <v>50044</v>
       </c>
       <c r="B45">
         <v>10001</v>
       </c>
       <c r="C45">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D45" t="s">
         <v>214</v>
@@ -6720,13 +6713,13 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
-        <v>10045</v>
+        <v>50045</v>
       </c>
       <c r="B46">
         <v>10001</v>
       </c>
       <c r="C46">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D46" t="s">
         <v>218</v>
@@ -6749,13 +6742,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
-        <v>10046</v>
+        <v>50046</v>
       </c>
       <c r="B47">
         <v>10001</v>
       </c>
       <c r="C47">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D47" t="s">
         <v>222</v>
@@ -6778,13 +6771,13 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
-        <v>10047</v>
+        <v>50047</v>
       </c>
       <c r="B48">
         <v>10001</v>
       </c>
       <c r="C48">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D48" t="s">
         <v>226</v>
@@ -6807,13 +6800,13 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
-        <v>10048</v>
+        <v>50048</v>
       </c>
       <c r="B49">
         <v>10001</v>
       </c>
       <c r="C49">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D49" t="s">
         <v>230</v>
@@ -6836,13 +6829,13 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
-        <v>10049</v>
+        <v>50049</v>
       </c>
       <c r="B50">
         <v>10001</v>
       </c>
       <c r="C50">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D50" t="s">
         <v>234</v>
@@ -6865,13 +6858,13 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
-        <v>10050</v>
+        <v>50050</v>
       </c>
       <c r="B51">
         <v>10001</v>
       </c>
       <c r="C51">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D51" t="s">
         <v>238</v>
@@ -6894,13 +6887,13 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
-        <v>10051</v>
+        <v>50051</v>
       </c>
       <c r="B52">
         <v>10002</v>
       </c>
       <c r="C52">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D52" t="s">
         <v>242</v>
@@ -6923,13 +6916,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
-        <v>10052</v>
+        <v>50052</v>
       </c>
       <c r="B53">
         <v>10002</v>
       </c>
       <c r="C53">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D53" t="s">
         <v>246</v>
@@ -6952,13 +6945,13 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
-        <v>10053</v>
+        <v>50053</v>
       </c>
       <c r="B54">
         <v>10002</v>
       </c>
       <c r="C54">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D54" t="s">
         <v>250</v>
@@ -6981,13 +6974,13 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
-        <v>10054</v>
+        <v>50054</v>
       </c>
       <c r="B55">
         <v>10002</v>
       </c>
       <c r="C55">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D55" t="s">
         <v>254</v>
@@ -7010,13 +7003,13 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
-        <v>10055</v>
+        <v>50055</v>
       </c>
       <c r="B56">
         <v>10002</v>
       </c>
       <c r="C56">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D56" t="s">
         <v>258</v>
@@ -7039,13 +7032,13 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
-        <v>10056</v>
+        <v>50056</v>
       </c>
       <c r="B57">
         <v>10002</v>
       </c>
       <c r="C57">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D57" t="s">
         <v>262</v>
@@ -7068,13 +7061,13 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
-        <v>10057</v>
+        <v>50057</v>
       </c>
       <c r="B58">
         <v>10002</v>
       </c>
       <c r="C58">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D58" t="s">
         <v>266</v>
@@ -7097,13 +7090,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
-        <v>10058</v>
+        <v>50058</v>
       </c>
       <c r="B59">
         <v>10002</v>
       </c>
       <c r="C59">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D59" t="s">
         <v>270</v>
@@ -7126,13 +7119,13 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
-        <v>10059</v>
+        <v>50059</v>
       </c>
       <c r="B60">
         <v>10002</v>
       </c>
       <c r="C60">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D60" t="s">
         <v>274</v>
@@ -7155,13 +7148,13 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
-        <v>10060</v>
+        <v>50060</v>
       </c>
       <c r="B61">
         <v>10002</v>
       </c>
       <c r="C61">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D61" t="s">
         <v>278</v>
@@ -7184,13 +7177,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
-        <v>10061</v>
+        <v>50061</v>
       </c>
       <c r="B62">
         <v>10002</v>
       </c>
       <c r="C62">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D62" t="s">
         <v>282</v>
@@ -7213,13 +7206,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
-        <v>10062</v>
+        <v>50062</v>
       </c>
       <c r="B63">
         <v>10002</v>
       </c>
       <c r="C63">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D63" t="s">
         <v>286</v>
@@ -7242,13 +7235,13 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
-        <v>10063</v>
+        <v>50063</v>
       </c>
       <c r="B64">
         <v>10002</v>
       </c>
       <c r="C64">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D64" t="s">
         <v>290</v>
@@ -7271,13 +7264,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
-        <v>10064</v>
+        <v>50064</v>
       </c>
       <c r="B65">
         <v>10002</v>
       </c>
       <c r="C65">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D65" t="s">
         <v>294</v>
@@ -7300,13 +7293,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
-        <v>10065</v>
+        <v>50065</v>
       </c>
       <c r="B66">
         <v>10002</v>
       </c>
       <c r="C66">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D66" t="s">
         <v>298</v>
@@ -7329,13 +7322,13 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
-        <v>10066</v>
+        <v>50066</v>
       </c>
       <c r="B67">
         <v>10002</v>
       </c>
       <c r="C67">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D67" t="s">
         <v>302</v>
@@ -7358,13 +7351,13 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
-        <v>10067</v>
+        <v>50067</v>
       </c>
       <c r="B68">
         <v>10002</v>
       </c>
       <c r="C68">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D68" t="s">
         <v>306</v>
@@ -7387,13 +7380,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
-        <v>10068</v>
+        <v>50068</v>
       </c>
       <c r="B69">
         <v>10002</v>
       </c>
       <c r="C69">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D69" t="s">
         <v>310</v>
@@ -7416,13 +7409,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
-        <v>10069</v>
+        <v>50069</v>
       </c>
       <c r="B70">
         <v>10002</v>
       </c>
       <c r="C70">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D70" t="s">
         <v>314</v>
@@ -7445,13 +7438,13 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
-        <v>10070</v>
+        <v>50070</v>
       </c>
       <c r="B71">
         <v>10002</v>
       </c>
       <c r="C71">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D71" t="s">
         <v>318</v>
@@ -7474,13 +7467,13 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
-        <v>10071</v>
+        <v>50071</v>
       </c>
       <c r="B72">
         <v>10002</v>
       </c>
       <c r="C72">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D72" t="s">
         <v>322</v>
@@ -7503,13 +7496,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
-        <v>10072</v>
+        <v>50072</v>
       </c>
       <c r="B73">
         <v>10002</v>
       </c>
       <c r="C73">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D73" t="s">
         <v>326</v>
@@ -7532,13 +7525,13 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
-        <v>10073</v>
+        <v>50073</v>
       </c>
       <c r="B74">
         <v>10002</v>
       </c>
       <c r="C74">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D74" t="s">
         <v>329</v>
@@ -7561,13 +7554,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
-        <v>10074</v>
+        <v>50074</v>
       </c>
       <c r="B75">
         <v>10002</v>
       </c>
       <c r="C75">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D75" t="s">
         <v>333</v>
@@ -7590,13 +7583,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
-        <v>10075</v>
+        <v>50075</v>
       </c>
       <c r="B76">
         <v>10002</v>
       </c>
       <c r="C76">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D76" t="s">
         <v>337</v>
@@ -7619,13 +7612,13 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
-        <v>10076</v>
+        <v>50076</v>
       </c>
       <c r="B77">
         <v>10002</v>
       </c>
       <c r="C77">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D77" t="s">
         <v>318</v>
@@ -7648,13 +7641,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>10077</v>
+        <v>50077</v>
       </c>
       <c r="B78">
         <v>10002</v>
       </c>
       <c r="C78">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D78" t="s">
         <v>341</v>
@@ -7677,13 +7670,13 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
-        <v>10078</v>
+        <v>50078</v>
       </c>
       <c r="B79">
         <v>10002</v>
       </c>
       <c r="C79">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D79" t="s">
         <v>345</v>
@@ -7706,13 +7699,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
-        <v>10079</v>
+        <v>50079</v>
       </c>
       <c r="B80">
         <v>10002</v>
       </c>
       <c r="C80">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D80" t="s">
         <v>349</v>
@@ -7735,13 +7728,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
-        <v>10080</v>
+        <v>50080</v>
       </c>
       <c r="B81">
         <v>10002</v>
       </c>
       <c r="C81">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D81" t="s">
         <v>353</v>
@@ -7764,13 +7757,13 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
-        <v>10081</v>
+        <v>50081</v>
       </c>
       <c r="B82">
         <v>10002</v>
       </c>
       <c r="C82">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D82" t="s">
         <v>357</v>
@@ -7793,13 +7786,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
-        <v>10082</v>
+        <v>50082</v>
       </c>
       <c r="B83">
         <v>10002</v>
       </c>
       <c r="C83">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D83" t="s">
         <v>361</v>
@@ -7822,13 +7815,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
-        <v>10083</v>
+        <v>50083</v>
       </c>
       <c r="B84">
         <v>10002</v>
       </c>
       <c r="C84">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D84" t="s">
         <v>365</v>
@@ -7851,13 +7844,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
-        <v>10084</v>
+        <v>50084</v>
       </c>
       <c r="B85">
         <v>10002</v>
       </c>
       <c r="C85">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D85" t="s">
         <v>306</v>
@@ -7880,13 +7873,13 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
-        <v>10085</v>
+        <v>50085</v>
       </c>
       <c r="B86">
         <v>10002</v>
       </c>
       <c r="C86">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D86" t="s">
         <v>369</v>
@@ -7909,13 +7902,13 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
-        <v>10086</v>
+        <v>50086</v>
       </c>
       <c r="B87">
         <v>10002</v>
       </c>
       <c r="C87">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D87" t="s">
         <v>373</v>
@@ -7938,13 +7931,13 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
-        <v>10087</v>
+        <v>50087</v>
       </c>
       <c r="B88">
         <v>10002</v>
       </c>
       <c r="C88">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D88" t="s">
         <v>262</v>
@@ -7967,13 +7960,13 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
-        <v>10088</v>
+        <v>50088</v>
       </c>
       <c r="B89">
         <v>10002</v>
       </c>
       <c r="C89">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D89" t="s">
         <v>266</v>
@@ -7996,13 +7989,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
-        <v>10089</v>
+        <v>50089</v>
       </c>
       <c r="B90">
         <v>10002</v>
       </c>
       <c r="C90">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D90" t="s">
         <v>246</v>
@@ -8025,13 +8018,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
-        <v>10090</v>
+        <v>50090</v>
       </c>
       <c r="B91">
         <v>10002</v>
       </c>
       <c r="C91">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D91" t="s">
         <v>345</v>
@@ -8054,13 +8047,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
-        <v>10091</v>
+        <v>50091</v>
       </c>
       <c r="B92">
         <v>10002</v>
       </c>
       <c r="C92">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D92" t="s">
         <v>270</v>
@@ -8083,13 +8076,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
-        <v>10092</v>
+        <v>50092</v>
       </c>
       <c r="B93">
         <v>10002</v>
       </c>
       <c r="C93">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D93" t="s">
         <v>310</v>
@@ -8112,13 +8105,13 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
-        <v>10093</v>
+        <v>50093</v>
       </c>
       <c r="B94">
         <v>10002</v>
       </c>
       <c r="C94">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D94" t="s">
         <v>378</v>
@@ -8141,13 +8134,13 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
-        <v>10094</v>
+        <v>50094</v>
       </c>
       <c r="B95">
         <v>10002</v>
       </c>
       <c r="C95">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D95" t="s">
         <v>382</v>
@@ -8170,13 +8163,13 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
-        <v>10095</v>
+        <v>50095</v>
       </c>
       <c r="B96">
         <v>10002</v>
       </c>
       <c r="C96">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D96" t="s">
         <v>386</v>
@@ -8199,13 +8192,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
-        <v>10096</v>
+        <v>50096</v>
       </c>
       <c r="B97">
         <v>10002</v>
       </c>
       <c r="C97">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D97" t="s">
         <v>390</v>
@@ -8228,13 +8221,13 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98">
-        <v>10097</v>
+        <v>50097</v>
       </c>
       <c r="B98">
         <v>10002</v>
       </c>
       <c r="C98">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D98" t="s">
         <v>394</v>
@@ -8257,13 +8250,13 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
-        <v>10098</v>
+        <v>50098</v>
       </c>
       <c r="B99">
         <v>10002</v>
       </c>
       <c r="C99">
-        <v>10006</v>
+        <v>20006</v>
       </c>
       <c r="D99" t="s">
         <v>398</v>
@@ -8286,13 +8279,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
-        <v>10099</v>
+        <v>50099</v>
       </c>
       <c r="B100">
         <v>10002</v>
       </c>
       <c r="C100">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D100" t="s">
         <v>402</v>
@@ -8315,13 +8308,13 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
-        <v>10100</v>
+        <v>50100</v>
       </c>
       <c r="B101">
         <v>10002</v>
       </c>
       <c r="C101">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D101" t="s">
         <v>357</v>
@@ -8344,13 +8337,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
-        <v>10101</v>
+        <v>50101</v>
       </c>
       <c r="B102">
         <v>10002</v>
       </c>
       <c r="C102">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D102" t="s">
         <v>406</v>
@@ -8373,13 +8366,13 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
-        <v>10102</v>
+        <v>50102</v>
       </c>
       <c r="B103">
         <v>10002</v>
       </c>
       <c r="C103">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D103" t="s">
         <v>349</v>
@@ -8402,13 +8395,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
-        <v>10103</v>
+        <v>50103</v>
       </c>
       <c r="B104">
         <v>10002</v>
       </c>
       <c r="C104">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D104" t="s">
         <v>353</v>
@@ -8431,13 +8424,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
-        <v>10104</v>
+        <v>50104</v>
       </c>
       <c r="B105">
         <v>10002</v>
       </c>
       <c r="C105">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D105" t="s">
         <v>410</v>
@@ -8460,13 +8453,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
-        <v>10105</v>
+        <v>50105</v>
       </c>
       <c r="B106">
         <v>10002</v>
       </c>
       <c r="C106">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D106" t="s">
         <v>378</v>
@@ -8489,13 +8482,13 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
-        <v>10106</v>
+        <v>50106</v>
       </c>
       <c r="B107">
         <v>10002</v>
       </c>
       <c r="C107">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D107" t="s">
         <v>414</v>
@@ -8518,13 +8511,13 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
-        <v>10107</v>
+        <v>50107</v>
       </c>
       <c r="B108">
         <v>10002</v>
       </c>
       <c r="C108">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D108" t="s">
         <v>418</v>
@@ -8547,13 +8540,13 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
-        <v>10108</v>
+        <v>50108</v>
       </c>
       <c r="B109">
         <v>10002</v>
       </c>
       <c r="C109">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D109" t="s">
         <v>361</v>
@@ -8576,13 +8569,13 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
-        <v>10109</v>
+        <v>50109</v>
       </c>
       <c r="B110">
         <v>10002</v>
       </c>
       <c r="C110">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D110" t="s">
         <v>382</v>
@@ -8605,13 +8598,13 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
-        <v>10110</v>
+        <v>50110</v>
       </c>
       <c r="B111">
         <v>10002</v>
       </c>
       <c r="C111">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D111" t="s">
         <v>386</v>
@@ -8634,13 +8627,13 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
-        <v>10111</v>
+        <v>50111</v>
       </c>
       <c r="B112">
         <v>10002</v>
       </c>
       <c r="C112">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D112" t="s">
         <v>390</v>
@@ -8663,13 +8656,13 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
-        <v>10112</v>
+        <v>50112</v>
       </c>
       <c r="B113">
         <v>10002</v>
       </c>
       <c r="C113">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D113" t="s">
         <v>422</v>
@@ -8692,13 +8685,13 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
-        <v>10113</v>
+        <v>50113</v>
       </c>
       <c r="B114">
         <v>10002</v>
       </c>
       <c r="C114">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D114" t="s">
         <v>426</v>
@@ -8721,13 +8714,13 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
-        <v>10114</v>
+        <v>50114</v>
       </c>
       <c r="B115">
         <v>10002</v>
       </c>
       <c r="C115">
-        <v>10007</v>
+        <v>20007</v>
       </c>
       <c r="D115" t="s">
         <v>430</v>
@@ -8750,13 +8743,13 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
-        <v>10115</v>
+        <v>50115</v>
       </c>
       <c r="B116">
         <v>10003</v>
       </c>
       <c r="C116">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D116" t="s">
         <v>434</v>
@@ -8779,13 +8772,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
-        <v>10116</v>
+        <v>50116</v>
       </c>
       <c r="B117">
         <v>10003</v>
       </c>
       <c r="C117">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D117" t="s">
         <v>438</v>
@@ -8808,13 +8801,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
-        <v>10117</v>
+        <v>50117</v>
       </c>
       <c r="B118">
         <v>10003</v>
       </c>
       <c r="C118">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D118" t="s">
         <v>442</v>
@@ -8837,13 +8830,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
-        <v>10118</v>
+        <v>50118</v>
       </c>
       <c r="B119">
         <v>10003</v>
       </c>
       <c r="C119">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D119" t="s">
         <v>446</v>
@@ -8866,13 +8859,13 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
-        <v>10119</v>
+        <v>50119</v>
       </c>
       <c r="B120">
         <v>10003</v>
       </c>
       <c r="C120">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D120" t="s">
         <v>450</v>
@@ -8895,13 +8888,13 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
-        <v>10120</v>
+        <v>50120</v>
       </c>
       <c r="B121">
         <v>10003</v>
       </c>
       <c r="C121">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D121" t="s">
         <v>454</v>
@@ -8924,13 +8917,13 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
-        <v>10121</v>
+        <v>50121</v>
       </c>
       <c r="B122">
         <v>10003</v>
       </c>
       <c r="C122">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D122" t="s">
         <v>458</v>
@@ -8953,13 +8946,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
-        <v>10122</v>
+        <v>50122</v>
       </c>
       <c r="B123">
         <v>10003</v>
       </c>
       <c r="C123">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D123" t="s">
         <v>462</v>
@@ -8982,13 +8975,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
-        <v>10123</v>
+        <v>50123</v>
       </c>
       <c r="B124">
         <v>10003</v>
       </c>
       <c r="C124">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D124" t="s">
         <v>466</v>
@@ -9011,13 +9004,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
-        <v>10124</v>
+        <v>50124</v>
       </c>
       <c r="B125">
         <v>10003</v>
       </c>
       <c r="C125">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D125" t="s">
         <v>470</v>
@@ -9040,13 +9033,13 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
-        <v>10125</v>
+        <v>50125</v>
       </c>
       <c r="B126">
         <v>10003</v>
       </c>
       <c r="C126">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D126" t="s">
         <v>474</v>
@@ -9069,13 +9062,13 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
-        <v>10126</v>
+        <v>50126</v>
       </c>
       <c r="B127">
         <v>10003</v>
       </c>
       <c r="C127">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D127" t="s">
         <v>478</v>
@@ -9098,13 +9091,13 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
-        <v>10127</v>
+        <v>50127</v>
       </c>
       <c r="B128">
         <v>10003</v>
       </c>
       <c r="C128">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D128" t="s">
         <v>482</v>
@@ -9127,13 +9120,13 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
-        <v>10128</v>
+        <v>50128</v>
       </c>
       <c r="B129">
         <v>10003</v>
       </c>
       <c r="C129">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D129" t="s">
         <v>486</v>
@@ -9156,13 +9149,13 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
-        <v>10129</v>
+        <v>50129</v>
       </c>
       <c r="B130">
         <v>10003</v>
       </c>
       <c r="C130">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D130" t="s">
         <v>490</v>
@@ -9185,13 +9178,13 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
-        <v>10130</v>
+        <v>50130</v>
       </c>
       <c r="B131">
         <v>10003</v>
       </c>
       <c r="C131">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D131" t="s">
         <v>494</v>
@@ -9214,13 +9207,13 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
-        <v>10131</v>
+        <v>50131</v>
       </c>
       <c r="B132">
         <v>10003</v>
       </c>
       <c r="C132">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D132" t="s">
         <v>498</v>
@@ -9243,13 +9236,13 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
-        <v>10132</v>
+        <v>50132</v>
       </c>
       <c r="B133">
         <v>10003</v>
       </c>
       <c r="C133">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D133" t="s">
         <v>502</v>
@@ -9272,13 +9265,13 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
-        <v>10133</v>
+        <v>50133</v>
       </c>
       <c r="B134">
         <v>10003</v>
       </c>
       <c r="C134">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D134" t="s">
         <v>506</v>
@@ -9301,13 +9294,13 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
-        <v>10134</v>
+        <v>50134</v>
       </c>
       <c r="B135">
         <v>10003</v>
       </c>
       <c r="C135">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D135" t="s">
         <v>510</v>
@@ -9330,13 +9323,13 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
-        <v>10135</v>
+        <v>50135</v>
       </c>
       <c r="B136">
         <v>10003</v>
       </c>
       <c r="C136">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D136" t="s">
         <v>514</v>
@@ -9359,13 +9352,13 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
-        <v>10136</v>
+        <v>50136</v>
       </c>
       <c r="B137">
         <v>10003</v>
       </c>
       <c r="C137">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D137" t="s">
         <v>518</v>
@@ -9388,13 +9381,13 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
-        <v>10137</v>
+        <v>50137</v>
       </c>
       <c r="B138">
         <v>10003</v>
       </c>
       <c r="C138">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D138" t="s">
         <v>522</v>
@@ -9417,13 +9410,13 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
-        <v>10138</v>
+        <v>50138</v>
       </c>
       <c r="B139">
         <v>10003</v>
       </c>
       <c r="C139">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D139" t="s">
         <v>526</v>
@@ -9446,13 +9439,13 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
-        <v>10139</v>
+        <v>50139</v>
       </c>
       <c r="B140">
         <v>10003</v>
       </c>
       <c r="C140">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D140" t="s">
         <v>530</v>
@@ -9475,13 +9468,13 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
-        <v>10140</v>
+        <v>50140</v>
       </c>
       <c r="B141">
         <v>10003</v>
       </c>
       <c r="C141">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D141" t="s">
         <v>534</v>
@@ -9504,13 +9497,13 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
-        <v>10141</v>
+        <v>50141</v>
       </c>
       <c r="B142">
         <v>10003</v>
       </c>
       <c r="C142">
-        <v>10008</v>
+        <v>20008</v>
       </c>
       <c r="D142" t="s">
         <v>538</v>
@@ -9533,13 +9526,13 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
-        <v>10142</v>
+        <v>50142</v>
       </c>
       <c r="B143">
         <v>10003</v>
       </c>
       <c r="C143">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D143" t="s">
         <v>542</v>
@@ -9562,13 +9555,13 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
-        <v>10143</v>
+        <v>50143</v>
       </c>
       <c r="B144">
         <v>10003</v>
       </c>
       <c r="C144">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D144" t="s">
         <v>546</v>
@@ -9591,13 +9584,13 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
-        <v>10144</v>
+        <v>50144</v>
       </c>
       <c r="B145">
         <v>10003</v>
       </c>
       <c r="C145">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D145" t="s">
         <v>550</v>
@@ -9620,13 +9613,13 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
-        <v>10145</v>
+        <v>50145</v>
       </c>
       <c r="B146">
         <v>10003</v>
       </c>
       <c r="C146">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D146" t="s">
         <v>554</v>
@@ -9649,13 +9642,13 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
-        <v>10146</v>
+        <v>50146</v>
       </c>
       <c r="B147">
         <v>10003</v>
       </c>
       <c r="C147">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D147" t="s">
         <v>558</v>
@@ -9678,13 +9671,13 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
-        <v>10147</v>
+        <v>50147</v>
       </c>
       <c r="B148">
         <v>10003</v>
       </c>
       <c r="C148">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D148" t="s">
         <v>562</v>
@@ -9707,13 +9700,13 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
-        <v>10148</v>
+        <v>50148</v>
       </c>
       <c r="B149">
         <v>10003</v>
       </c>
       <c r="C149">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D149" t="s">
         <v>566</v>
@@ -9736,13 +9729,13 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
-        <v>10149</v>
+        <v>50149</v>
       </c>
       <c r="B150">
         <v>10003</v>
       </c>
       <c r="C150">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D150" t="s">
         <v>569</v>
@@ -9765,13 +9758,13 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
-        <v>10150</v>
+        <v>50150</v>
       </c>
       <c r="B151">
         <v>10003</v>
       </c>
       <c r="C151">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D151" t="s">
         <v>573</v>
@@ -9794,13 +9787,13 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
-        <v>10151</v>
+        <v>50151</v>
       </c>
       <c r="B152">
         <v>10003</v>
       </c>
       <c r="C152">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D152" t="s">
         <v>576</v>
@@ -9823,13 +9816,13 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
-        <v>10152</v>
+        <v>50152</v>
       </c>
       <c r="B153">
         <v>10003</v>
       </c>
       <c r="C153">
-        <v>10009</v>
+        <v>20009</v>
       </c>
       <c r="D153" t="s">
         <v>580</v>
@@ -9852,13 +9845,13 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
-        <v>10153</v>
+        <v>50153</v>
       </c>
       <c r="B154">
         <v>10003</v>
       </c>
       <c r="C154">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D154" t="s">
         <v>584</v>
@@ -9881,13 +9874,13 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155">
-        <v>10154</v>
+        <v>50154</v>
       </c>
       <c r="B155">
         <v>10003</v>
       </c>
       <c r="C155">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D155" t="s">
         <v>588</v>
@@ -9910,13 +9903,13 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
-        <v>10155</v>
+        <v>50155</v>
       </c>
       <c r="B156">
         <v>10003</v>
       </c>
       <c r="C156">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D156" t="s">
         <v>592</v>
@@ -9939,13 +9932,13 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
-        <v>10156</v>
+        <v>50156</v>
       </c>
       <c r="B157">
         <v>10003</v>
       </c>
       <c r="C157">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D157" t="s">
         <v>596</v>
@@ -9968,13 +9961,13 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
-        <v>10157</v>
+        <v>50157</v>
       </c>
       <c r="B158">
         <v>10003</v>
       </c>
       <c r="C158">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D158" t="s">
         <v>600</v>
@@ -9997,13 +9990,13 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159">
-        <v>10158</v>
+        <v>50158</v>
       </c>
       <c r="B159">
         <v>10003</v>
       </c>
       <c r="C159">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D159" t="s">
         <v>604</v>
@@ -10026,13 +10019,13 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
-        <v>10159</v>
+        <v>50159</v>
       </c>
       <c r="B160">
         <v>10003</v>
       </c>
       <c r="C160">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D160" t="s">
         <v>608</v>
@@ -10055,13 +10048,13 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161">
-        <v>10160</v>
+        <v>50160</v>
       </c>
       <c r="B161">
         <v>10003</v>
       </c>
       <c r="C161">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D161" t="s">
         <v>612</v>
@@ -10084,13 +10077,13 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162">
-        <v>10161</v>
+        <v>50161</v>
       </c>
       <c r="B162">
         <v>10003</v>
       </c>
       <c r="C162">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D162" t="s">
         <v>616</v>
@@ -10113,13 +10106,13 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163">
-        <v>10162</v>
+        <v>50162</v>
       </c>
       <c r="B163">
         <v>10003</v>
       </c>
       <c r="C163">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D163" t="s">
         <v>620</v>
@@ -10142,13 +10135,13 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164">
-        <v>10163</v>
+        <v>50163</v>
       </c>
       <c r="B164">
         <v>10003</v>
       </c>
       <c r="C164">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D164" t="s">
         <v>624</v>
@@ -10171,13 +10164,13 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165">
-        <v>10164</v>
+        <v>50164</v>
       </c>
       <c r="B165">
         <v>10003</v>
       </c>
       <c r="C165">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D165" t="s">
         <v>628</v>
@@ -10200,13 +10193,13 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166">
-        <v>10165</v>
+        <v>50165</v>
       </c>
       <c r="B166">
         <v>10003</v>
       </c>
       <c r="C166">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D166" t="s">
         <v>632</v>
@@ -10229,13 +10222,13 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167">
-        <v>10166</v>
+        <v>50166</v>
       </c>
       <c r="B167">
         <v>10003</v>
       </c>
       <c r="C167">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D167" t="s">
         <v>636</v>
@@ -10258,13 +10251,13 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168">
-        <v>10167</v>
+        <v>50167</v>
       </c>
       <c r="B168">
         <v>10003</v>
       </c>
       <c r="C168">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D168" t="s">
         <v>640</v>
@@ -10287,13 +10280,13 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169">
-        <v>10168</v>
+        <v>50168</v>
       </c>
       <c r="B169">
         <v>10003</v>
       </c>
       <c r="C169">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D169" t="s">
         <v>644</v>
@@ -10316,13 +10309,13 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170">
-        <v>10169</v>
+        <v>50169</v>
       </c>
       <c r="B170">
         <v>10003</v>
       </c>
       <c r="C170">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D170" t="s">
         <v>648</v>
@@ -10345,13 +10338,13 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171">
-        <v>10170</v>
+        <v>50170</v>
       </c>
       <c r="B171">
         <v>10003</v>
       </c>
       <c r="C171">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D171" t="s">
         <v>652</v>
@@ -10374,13 +10367,13 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172">
-        <v>10171</v>
+        <v>50171</v>
       </c>
       <c r="B172">
         <v>10003</v>
       </c>
       <c r="C172">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D172" t="s">
         <v>656</v>
@@ -10403,13 +10396,13 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173">
-        <v>10172</v>
+        <v>50172</v>
       </c>
       <c r="B173">
         <v>10003</v>
       </c>
       <c r="C173">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D173" t="s">
         <v>660</v>
@@ -10432,13 +10425,13 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174">
-        <v>10173</v>
+        <v>50173</v>
       </c>
       <c r="B174">
         <v>10003</v>
       </c>
       <c r="C174">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D174" t="s">
         <v>664</v>
@@ -10461,13 +10454,13 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175">
-        <v>10174</v>
+        <v>50174</v>
       </c>
       <c r="B175">
         <v>10003</v>
       </c>
       <c r="C175">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D175" t="s">
         <v>668</v>
@@ -10490,13 +10483,13 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176">
-        <v>10175</v>
+        <v>50175</v>
       </c>
       <c r="B176">
         <v>10003</v>
       </c>
       <c r="C176">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D176" t="s">
         <v>672</v>
@@ -10519,13 +10512,13 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177">
-        <v>10176</v>
+        <v>50176</v>
       </c>
       <c r="B177">
         <v>10003</v>
       </c>
       <c r="C177">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D177" t="s">
         <v>676</v>
@@ -10548,13 +10541,13 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178">
-        <v>10177</v>
+        <v>50177</v>
       </c>
       <c r="B178">
         <v>10003</v>
       </c>
       <c r="C178">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D178" t="s">
         <v>680</v>
@@ -10577,13 +10570,13 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179">
-        <v>10178</v>
+        <v>50178</v>
       </c>
       <c r="B179">
         <v>10003</v>
       </c>
       <c r="C179">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D179" t="s">
         <v>684</v>
@@ -10606,13 +10599,13 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180">
-        <v>10179</v>
+        <v>50179</v>
       </c>
       <c r="B180">
         <v>10003</v>
       </c>
       <c r="C180">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D180" t="s">
         <v>688</v>
@@ -10635,13 +10628,13 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181">
-        <v>10180</v>
+        <v>50180</v>
       </c>
       <c r="B181">
         <v>10003</v>
       </c>
       <c r="C181">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D181" t="s">
         <v>692</v>
@@ -10664,13 +10657,13 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182">
-        <v>10181</v>
+        <v>50181</v>
       </c>
       <c r="B182">
         <v>10003</v>
       </c>
       <c r="C182">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D182" t="s">
         <v>696</v>
@@ -10693,13 +10686,13 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183">
-        <v>10182</v>
+        <v>50182</v>
       </c>
       <c r="B183">
         <v>10003</v>
       </c>
       <c r="C183">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D183" t="s">
         <v>700</v>
@@ -10722,13 +10715,13 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184">
-        <v>10183</v>
+        <v>50183</v>
       </c>
       <c r="B184">
         <v>10003</v>
       </c>
       <c r="C184">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D184" t="s">
         <v>704</v>
@@ -10751,13 +10744,13 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185">
-        <v>10184</v>
+        <v>50184</v>
       </c>
       <c r="B185">
         <v>10003</v>
       </c>
       <c r="C185">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="D185" t="s">
         <v>708</v>
@@ -10780,13 +10773,13 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186">
-        <v>10185</v>
+        <v>50185</v>
       </c>
       <c r="B186">
         <v>10003</v>
       </c>
       <c r="C186">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="D186" t="s">
         <v>712</v>
@@ -10809,13 +10802,13 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187">
-        <v>10186</v>
+        <v>50186</v>
       </c>
       <c r="B187">
         <v>10003</v>
       </c>
       <c r="C187">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="D187" t="s">
         <v>716</v>
@@ -10838,13 +10831,13 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188">
-        <v>10187</v>
+        <v>50187</v>
       </c>
       <c r="B188">
         <v>10003</v>
       </c>
       <c r="C188">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="D188" t="s">
         <v>720</v>
@@ -10867,13 +10860,13 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189">
-        <v>10188</v>
+        <v>50188</v>
       </c>
       <c r="B189">
         <v>10003</v>
       </c>
       <c r="C189">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="D189" t="s">
         <v>722</v>
@@ -10896,13 +10889,13 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190">
-        <v>10189</v>
+        <v>50189</v>
       </c>
       <c r="B190">
         <v>10003</v>
       </c>
       <c r="C190">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="D190" t="s">
         <v>726</v>
@@ -10925,13 +10918,13 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191">
-        <v>10190</v>
+        <v>50190</v>
       </c>
       <c r="B191">
         <v>10004</v>
       </c>
       <c r="C191">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D191" t="s">
         <v>730</v>
@@ -10954,13 +10947,13 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192">
-        <v>10191</v>
+        <v>50191</v>
       </c>
       <c r="B192">
         <v>10004</v>
       </c>
       <c r="C192">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D192" t="s">
         <v>734</v>
@@ -10983,13 +10976,13 @@
     </row>
     <row r="193" spans="1:9">
       <c r="A193">
-        <v>10192</v>
+        <v>50192</v>
       </c>
       <c r="B193">
         <v>10004</v>
       </c>
       <c r="C193">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D193" t="s">
         <v>738</v>
@@ -11012,13 +11005,13 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194">
-        <v>10193</v>
+        <v>50193</v>
       </c>
       <c r="B194">
         <v>10004</v>
       </c>
       <c r="C194">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D194" t="s">
         <v>742</v>
@@ -11041,13 +11034,13 @@
     </row>
     <row r="195" spans="1:9">
       <c r="A195">
-        <v>10194</v>
+        <v>50194</v>
       </c>
       <c r="B195">
         <v>10004</v>
       </c>
       <c r="C195">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D195" t="s">
         <v>746</v>
@@ -11070,13 +11063,13 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196">
-        <v>10195</v>
+        <v>50195</v>
       </c>
       <c r="B196">
         <v>10004</v>
       </c>
       <c r="C196">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D196" t="s">
         <v>750</v>
@@ -11099,13 +11092,13 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197">
-        <v>10196</v>
+        <v>50196</v>
       </c>
       <c r="B197">
         <v>10004</v>
       </c>
       <c r="C197">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D197" t="s">
         <v>754</v>
@@ -11128,13 +11121,13 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198">
-        <v>10197</v>
+        <v>50197</v>
       </c>
       <c r="B198">
         <v>10004</v>
       </c>
       <c r="C198">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D198" t="s">
         <v>758</v>
@@ -11157,13 +11150,13 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199">
-        <v>10198</v>
+        <v>50198</v>
       </c>
       <c r="B199">
         <v>10004</v>
       </c>
       <c r="C199">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D199" t="s">
         <v>762</v>
@@ -11186,13 +11179,13 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200">
-        <v>10199</v>
+        <v>50199</v>
       </c>
       <c r="B200">
         <v>10004</v>
       </c>
       <c r="C200">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D200" t="s">
         <v>766</v>
@@ -11215,13 +11208,13 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201">
-        <v>10200</v>
+        <v>50200</v>
       </c>
       <c r="B201">
         <v>10004</v>
       </c>
       <c r="C201">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D201" t="s">
         <v>770</v>
@@ -11244,13 +11237,13 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202">
-        <v>10201</v>
+        <v>50201</v>
       </c>
       <c r="B202">
         <v>10004</v>
       </c>
       <c r="C202">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D202" t="s">
         <v>774</v>
@@ -11273,13 +11266,13 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203">
-        <v>10202</v>
+        <v>50202</v>
       </c>
       <c r="B203">
         <v>10004</v>
       </c>
       <c r="C203">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D203" t="s">
         <v>778</v>
@@ -11302,13 +11295,13 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204">
-        <v>10203</v>
+        <v>50203</v>
       </c>
       <c r="B204">
         <v>10004</v>
       </c>
       <c r="C204">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D204" t="s">
         <v>782</v>
@@ -11331,13 +11324,13 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205">
-        <v>10204</v>
+        <v>50204</v>
       </c>
       <c r="B205">
         <v>10004</v>
       </c>
       <c r="C205">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D205" t="s">
         <v>786</v>
@@ -11360,13 +11353,13 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206">
-        <v>10205</v>
+        <v>50205</v>
       </c>
       <c r="B206">
         <v>10004</v>
       </c>
       <c r="C206">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D206" t="s">
         <v>790</v>
@@ -11389,13 +11382,13 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207">
-        <v>10206</v>
+        <v>50206</v>
       </c>
       <c r="B207">
         <v>10004</v>
       </c>
       <c r="C207">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D207" t="s">
         <v>794</v>
@@ -11418,13 +11411,13 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208">
-        <v>10207</v>
+        <v>50207</v>
       </c>
       <c r="B208">
         <v>10004</v>
       </c>
       <c r="C208">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D208" t="s">
         <v>798</v>
@@ -11447,13 +11440,13 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209">
-        <v>10208</v>
+        <v>50208</v>
       </c>
       <c r="B209">
         <v>10004</v>
       </c>
       <c r="C209">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D209" t="s">
         <v>802</v>
@@ -11476,13 +11469,13 @@
     </row>
     <row r="210" spans="1:9">
       <c r="A210">
-        <v>10209</v>
+        <v>50209</v>
       </c>
       <c r="B210">
         <v>10004</v>
       </c>
       <c r="C210">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D210" t="s">
         <v>806</v>
@@ -11505,13 +11498,13 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211">
-        <v>10210</v>
+        <v>50210</v>
       </c>
       <c r="B211">
         <v>10004</v>
       </c>
       <c r="C211">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D211" t="s">
         <v>808</v>
@@ -11534,13 +11527,13 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212">
-        <v>10211</v>
+        <v>50211</v>
       </c>
       <c r="B212">
         <v>10004</v>
       </c>
       <c r="C212">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D212" t="s">
         <v>812</v>
@@ -11563,13 +11556,13 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213">
-        <v>10212</v>
+        <v>50212</v>
       </c>
       <c r="B213">
         <v>10004</v>
       </c>
       <c r="C213">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D213" t="s">
         <v>816</v>
@@ -11592,13 +11585,13 @@
     </row>
     <row r="214" spans="1:9">
       <c r="A214">
-        <v>10213</v>
+        <v>50213</v>
       </c>
       <c r="B214">
         <v>10004</v>
       </c>
       <c r="C214">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D214" t="s">
         <v>820</v>
@@ -11621,13 +11614,13 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215">
-        <v>10214</v>
+        <v>50214</v>
       </c>
       <c r="B215">
         <v>10004</v>
       </c>
       <c r="C215">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D215" t="s">
         <v>824</v>
@@ -11650,13 +11643,13 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216">
-        <v>10215</v>
+        <v>50215</v>
       </c>
       <c r="B216">
         <v>10004</v>
       </c>
       <c r="C216">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D216" t="s">
         <v>824</v>
@@ -11679,13 +11672,13 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217">
-        <v>10216</v>
+        <v>50216</v>
       </c>
       <c r="B217">
         <v>10004</v>
       </c>
       <c r="C217">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D217" t="s">
         <v>829</v>
@@ -11708,13 +11701,13 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218">
-        <v>10217</v>
+        <v>50217</v>
       </c>
       <c r="B218">
         <v>10004</v>
       </c>
       <c r="C218">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D218" t="s">
         <v>833</v>
@@ -11737,13 +11730,13 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219">
-        <v>10218</v>
+        <v>50218</v>
       </c>
       <c r="B219">
         <v>10004</v>
       </c>
       <c r="C219">
-        <v>10012</v>
+        <v>20012</v>
       </c>
       <c r="D219" t="s">
         <v>837</v>
@@ -11766,13 +11759,13 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220">
-        <v>10219</v>
+        <v>50219</v>
       </c>
       <c r="B220">
         <v>10004</v>
       </c>
       <c r="C220">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="D220" t="s">
         <v>841</v>
@@ -11795,13 +11788,13 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221">
-        <v>10220</v>
+        <v>50220</v>
       </c>
       <c r="B221">
         <v>10004</v>
       </c>
       <c r="C221">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="D221" t="s">
         <v>845</v>
@@ -11824,13 +11817,13 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222">
-        <v>10221</v>
+        <v>50221</v>
       </c>
       <c r="B222">
         <v>10004</v>
       </c>
       <c r="C222">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="D222" t="s">
         <v>848</v>
@@ -11853,13 +11846,13 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223">
-        <v>10222</v>
+        <v>50222</v>
       </c>
       <c r="B223">
         <v>10004</v>
       </c>
       <c r="C223">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="D223" t="s">
         <v>852</v>
@@ -11882,13 +11875,13 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224">
-        <v>10223</v>
+        <v>50223</v>
       </c>
       <c r="B224">
         <v>10004</v>
       </c>
       <c r="C224">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="D224" t="s">
         <v>856</v>
@@ -11911,13 +11904,13 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225">
-        <v>10224</v>
+        <v>50224</v>
       </c>
       <c r="B225">
         <v>10004</v>
       </c>
       <c r="C225">
-        <v>10013</v>
+        <v>20013</v>
       </c>
       <c r="D225" t="s">
         <v>859</v>
@@ -11940,13 +11933,13 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226">
-        <v>10225</v>
+        <v>50225</v>
       </c>
       <c r="B226">
         <v>10004</v>
       </c>
       <c r="C226">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D226" t="s">
         <v>862</v>
@@ -11969,13 +11962,13 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227">
-        <v>10226</v>
+        <v>50226</v>
       </c>
       <c r="B227">
         <v>10004</v>
       </c>
       <c r="C227">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D227" t="s">
         <v>866</v>
@@ -11998,13 +11991,13 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228">
-        <v>10227</v>
+        <v>50227</v>
       </c>
       <c r="B228">
         <v>10004</v>
       </c>
       <c r="C228">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D228" t="s">
         <v>870</v>
@@ -12027,13 +12020,13 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229">
-        <v>10228</v>
+        <v>50228</v>
       </c>
       <c r="B229">
         <v>10004</v>
       </c>
       <c r="C229">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D229" t="s">
         <v>874</v>
@@ -12056,13 +12049,13 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230">
-        <v>10229</v>
+        <v>50229</v>
       </c>
       <c r="B230">
         <v>10004</v>
       </c>
       <c r="C230">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D230" t="s">
         <v>878</v>
@@ -12085,13 +12078,13 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231">
-        <v>10230</v>
+        <v>50230</v>
       </c>
       <c r="B231">
         <v>10004</v>
       </c>
       <c r="C231">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D231" t="s">
         <v>882</v>
@@ -12114,13 +12107,13 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232">
-        <v>10231</v>
+        <v>50231</v>
       </c>
       <c r="B232">
         <v>10004</v>
       </c>
       <c r="C232">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D232" t="s">
         <v>886</v>
@@ -12143,13 +12136,13 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233">
-        <v>10232</v>
+        <v>50232</v>
       </c>
       <c r="B233">
         <v>10004</v>
       </c>
       <c r="C233">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D233" t="s">
         <v>890</v>
@@ -12172,13 +12165,13 @@
     </row>
     <row r="234" spans="1:9">
       <c r="A234">
-        <v>10233</v>
+        <v>50233</v>
       </c>
       <c r="B234">
         <v>10004</v>
       </c>
       <c r="C234">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D234" t="s">
         <v>894</v>
@@ -12201,13 +12194,13 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235">
-        <v>10234</v>
+        <v>50234</v>
       </c>
       <c r="B235">
         <v>10004</v>
       </c>
       <c r="C235">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D235" t="s">
         <v>898</v>
@@ -12230,13 +12223,13 @@
     </row>
     <row r="236" spans="1:9">
       <c r="A236">
-        <v>10235</v>
+        <v>50235</v>
       </c>
       <c r="B236">
         <v>10004</v>
       </c>
       <c r="C236">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D236" t="s">
         <v>902</v>
@@ -12259,13 +12252,13 @@
     </row>
     <row r="237" spans="1:9">
       <c r="A237">
-        <v>10236</v>
+        <v>50236</v>
       </c>
       <c r="B237">
         <v>10004</v>
       </c>
       <c r="C237">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D237" t="s">
         <v>906</v>
@@ -12288,13 +12281,13 @@
     </row>
     <row r="238" spans="1:9">
       <c r="A238">
-        <v>10237</v>
+        <v>50237</v>
       </c>
       <c r="B238">
         <v>10004</v>
       </c>
       <c r="C238">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D238" t="s">
         <v>910</v>
@@ -12317,13 +12310,13 @@
     </row>
     <row r="239" spans="1:9">
       <c r="A239">
-        <v>10238</v>
+        <v>50238</v>
       </c>
       <c r="B239">
         <v>10004</v>
       </c>
       <c r="C239">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D239" t="s">
         <v>914</v>
@@ -12346,13 +12339,13 @@
     </row>
     <row r="240" spans="1:9">
       <c r="A240">
-        <v>10239</v>
+        <v>50239</v>
       </c>
       <c r="B240">
         <v>10004</v>
       </c>
       <c r="C240">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D240" t="s">
         <v>918</v>
@@ -12375,13 +12368,13 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241">
-        <v>10240</v>
+        <v>50240</v>
       </c>
       <c r="B241">
         <v>10004</v>
       </c>
       <c r="C241">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D241" t="s">
         <v>922</v>
@@ -12404,13 +12397,13 @@
     </row>
     <row r="242" spans="1:9">
       <c r="A242">
-        <v>10241</v>
+        <v>50241</v>
       </c>
       <c r="B242">
         <v>10004</v>
       </c>
       <c r="C242">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D242" t="s">
         <v>926</v>
@@ -12433,13 +12426,13 @@
     </row>
     <row r="243" spans="1:9">
       <c r="A243">
-        <v>10242</v>
+        <v>50242</v>
       </c>
       <c r="B243">
         <v>10004</v>
       </c>
       <c r="C243">
-        <v>10014</v>
+        <v>20014</v>
       </c>
       <c r="D243" t="s">
         <v>930</v>
@@ -12462,13 +12455,13 @@
     </row>
     <row r="244" spans="1:9">
       <c r="A244">
-        <v>10243</v>
+        <v>50243</v>
       </c>
       <c r="B244">
         <v>10005</v>
       </c>
       <c r="C244">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D244" t="s">
         <v>26</v>
@@ -12491,13 +12484,13 @@
     </row>
     <row r="245" spans="1:9">
       <c r="A245">
-        <v>10244</v>
+        <v>50244</v>
       </c>
       <c r="B245">
         <v>10005</v>
       </c>
       <c r="C245">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D245" t="s">
         <v>27</v>
@@ -12520,13 +12513,13 @@
     </row>
     <row r="246" spans="1:9">
       <c r="A246">
-        <v>10245</v>
+        <v>50245</v>
       </c>
       <c r="B246">
         <v>10005</v>
       </c>
       <c r="C246">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D246" t="s">
         <v>938</v>
@@ -12549,13 +12542,13 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247">
-        <v>10246</v>
+        <v>50246</v>
       </c>
       <c r="B247">
         <v>10005</v>
       </c>
       <c r="C247">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D247" t="s">
         <v>178</v>
@@ -12578,13 +12571,13 @@
     </row>
     <row r="248" spans="1:9">
       <c r="A248">
-        <v>10247</v>
+        <v>50247</v>
       </c>
       <c r="B248">
         <v>10005</v>
       </c>
       <c r="C248">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D248" t="s">
         <v>944</v>
@@ -12607,13 +12600,13 @@
     </row>
     <row r="249" spans="1:9">
       <c r="A249">
-        <v>10248</v>
+        <v>50248</v>
       </c>
       <c r="B249">
         <v>10005</v>
       </c>
       <c r="C249">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D249" t="s">
         <v>948</v>
@@ -12636,13 +12629,13 @@
     </row>
     <row r="250" spans="1:9">
       <c r="A250">
-        <v>10249</v>
+        <v>50249</v>
       </c>
       <c r="B250">
         <v>10005</v>
       </c>
       <c r="C250">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D250" t="s">
         <v>952</v>
@@ -12665,13 +12658,13 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251">
-        <v>10250</v>
+        <v>50250</v>
       </c>
       <c r="B251">
         <v>10005</v>
       </c>
       <c r="C251">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D251" t="s">
         <v>956</v>
@@ -12694,13 +12687,13 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252">
-        <v>10251</v>
+        <v>50251</v>
       </c>
       <c r="B252">
         <v>10005</v>
       </c>
       <c r="C252">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D252" t="s">
         <v>960</v>
@@ -12723,13 +12716,13 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253">
-        <v>10252</v>
+        <v>50252</v>
       </c>
       <c r="B253">
         <v>10005</v>
       </c>
       <c r="C253">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D253" t="s">
         <v>964</v>
@@ -12752,13 +12745,13 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254">
-        <v>10253</v>
+        <v>50253</v>
       </c>
       <c r="B254">
         <v>10005</v>
       </c>
       <c r="C254">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D254" t="s">
         <v>968</v>
@@ -12781,13 +12774,13 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255">
-        <v>10254</v>
+        <v>50254</v>
       </c>
       <c r="B255">
         <v>10005</v>
       </c>
       <c r="C255">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D255" t="s">
         <v>972</v>
@@ -12810,13 +12803,13 @@
     </row>
     <row r="256" spans="1:9">
       <c r="A256">
-        <v>10255</v>
+        <v>50255</v>
       </c>
       <c r="B256">
         <v>10005</v>
       </c>
       <c r="C256">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D256" t="s">
         <v>975</v>
@@ -12839,13 +12832,13 @@
     </row>
     <row r="257" spans="1:9">
       <c r="A257">
-        <v>10256</v>
+        <v>50256</v>
       </c>
       <c r="B257">
         <v>10005</v>
       </c>
       <c r="C257">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D257" t="s">
         <v>979</v>
@@ -12868,13 +12861,13 @@
     </row>
     <row r="258" spans="1:9">
       <c r="A258">
-        <v>10257</v>
+        <v>50257</v>
       </c>
       <c r="B258">
         <v>10005</v>
       </c>
       <c r="C258">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D258" t="s">
         <v>983</v>
@@ -12897,13 +12890,13 @@
     </row>
     <row r="259" spans="1:9">
       <c r="A259">
-        <v>10258</v>
+        <v>50258</v>
       </c>
       <c r="B259">
         <v>10005</v>
       </c>
       <c r="C259">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D259" t="s">
         <v>987</v>
@@ -12926,13 +12919,13 @@
     </row>
     <row r="260" spans="1:9">
       <c r="A260">
-        <v>10259</v>
+        <v>50259</v>
       </c>
       <c r="B260">
         <v>10005</v>
       </c>
       <c r="C260">
-        <v>10015</v>
+        <v>20015</v>
       </c>
       <c r="D260" t="s">
         <v>991</v>
@@ -12955,13 +12948,13 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261">
-        <v>10260</v>
+        <v>50260</v>
       </c>
       <c r="B261">
         <v>10005</v>
       </c>
       <c r="C261">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D261" t="s">
         <v>995</v>
@@ -12984,13 +12977,13 @@
     </row>
     <row r="262" spans="1:9">
       <c r="A262">
-        <v>10261</v>
+        <v>50261</v>
       </c>
       <c r="B262">
         <v>10005</v>
       </c>
       <c r="C262">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D262" t="s">
         <v>999</v>
@@ -13013,13 +13006,13 @@
     </row>
     <row r="263" spans="1:9">
       <c r="A263">
-        <v>10262</v>
+        <v>50262</v>
       </c>
       <c r="B263">
         <v>10005</v>
       </c>
       <c r="C263">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D263" t="s">
         <v>1003</v>
@@ -13042,13 +13035,13 @@
     </row>
     <row r="264" spans="1:9">
       <c r="A264">
-        <v>10263</v>
+        <v>50263</v>
       </c>
       <c r="B264">
         <v>10005</v>
       </c>
       <c r="C264">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D264" t="s">
         <v>1007</v>
@@ -13071,13 +13064,13 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265">
-        <v>10264</v>
+        <v>50264</v>
       </c>
       <c r="B265">
         <v>10005</v>
       </c>
       <c r="C265">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D265" t="s">
         <v>1011</v>
@@ -13100,13 +13093,13 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266">
-        <v>10265</v>
+        <v>50265</v>
       </c>
       <c r="B266">
         <v>10005</v>
       </c>
       <c r="C266">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D266" t="s">
         <v>1015</v>
@@ -13129,13 +13122,13 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267">
-        <v>10266</v>
+        <v>50266</v>
       </c>
       <c r="B267">
         <v>10005</v>
       </c>
       <c r="C267">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D267" t="s">
         <v>1019</v>
@@ -13158,13 +13151,13 @@
     </row>
     <row r="268" spans="1:9">
       <c r="A268">
-        <v>10267</v>
+        <v>50267</v>
       </c>
       <c r="B268">
         <v>10005</v>
       </c>
       <c r="C268">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D268" t="s">
         <v>1023</v>
@@ -13187,13 +13180,13 @@
     </row>
     <row r="269" spans="1:9">
       <c r="A269">
-        <v>10268</v>
+        <v>50268</v>
       </c>
       <c r="B269">
         <v>10005</v>
       </c>
       <c r="C269">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D269" t="s">
         <v>1027</v>
@@ -13216,13 +13209,13 @@
     </row>
     <row r="270" spans="1:9">
       <c r="A270">
-        <v>10269</v>
+        <v>50269</v>
       </c>
       <c r="B270">
         <v>10005</v>
       </c>
       <c r="C270">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D270" t="s">
         <v>1031</v>
@@ -13245,13 +13238,13 @@
     </row>
     <row r="271" spans="1:9">
       <c r="A271">
-        <v>10270</v>
+        <v>50270</v>
       </c>
       <c r="B271">
         <v>10005</v>
       </c>
       <c r="C271">
-        <v>10016</v>
+        <v>20016</v>
       </c>
       <c r="D271" t="s">
         <v>1035</v>
@@ -13274,13 +13267,13 @@
     </row>
     <row r="272" spans="1:9">
       <c r="A272">
-        <v>10271</v>
+        <v>50271</v>
       </c>
       <c r="B272">
         <v>10005</v>
       </c>
       <c r="C272">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D272" t="s">
         <v>1039</v>
@@ -13303,13 +13296,13 @@
     </row>
     <row r="273" spans="1:9">
       <c r="A273">
-        <v>10272</v>
+        <v>50272</v>
       </c>
       <c r="B273">
         <v>10005</v>
       </c>
       <c r="C273">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D273" t="s">
         <v>1043</v>
@@ -13332,13 +13325,13 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274">
-        <v>10273</v>
+        <v>50273</v>
       </c>
       <c r="B274">
         <v>10005</v>
       </c>
       <c r="C274">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D274" t="s">
         <v>1047</v>
@@ -13361,13 +13354,13 @@
     </row>
     <row r="275" spans="1:9">
       <c r="A275">
-        <v>10274</v>
+        <v>50274</v>
       </c>
       <c r="B275">
         <v>10005</v>
       </c>
       <c r="C275">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D275" t="s">
         <v>1051</v>
@@ -13390,13 +13383,13 @@
     </row>
     <row r="276" spans="1:9">
       <c r="A276">
-        <v>10275</v>
+        <v>50275</v>
       </c>
       <c r="B276">
         <v>10005</v>
       </c>
       <c r="C276">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D276" t="s">
         <v>1055</v>
@@ -13419,13 +13412,13 @@
     </row>
     <row r="277" spans="1:9">
       <c r="A277">
-        <v>10276</v>
+        <v>50276</v>
       </c>
       <c r="B277">
         <v>10005</v>
       </c>
       <c r="C277">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D277" t="s">
         <v>1059</v>
@@ -13448,13 +13441,13 @@
     </row>
     <row r="278" spans="1:9">
       <c r="A278">
-        <v>10277</v>
+        <v>50277</v>
       </c>
       <c r="B278">
         <v>10005</v>
       </c>
       <c r="C278">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D278" t="s">
         <v>1063</v>
@@ -13477,13 +13470,13 @@
     </row>
     <row r="279" spans="1:9">
       <c r="A279">
-        <v>10278</v>
+        <v>50278</v>
       </c>
       <c r="B279">
         <v>10005</v>
       </c>
       <c r="C279">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D279" t="s">
         <v>975</v>
@@ -13506,13 +13499,13 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280">
-        <v>10279</v>
+        <v>50279</v>
       </c>
       <c r="B280">
         <v>10005</v>
       </c>
       <c r="C280">
-        <v>10017</v>
+        <v>20017</v>
       </c>
       <c r="D280" t="s">
         <v>1068</v>
@@ -13535,13 +13528,13 @@
     </row>
     <row r="281" spans="1:9">
       <c r="A281">
-        <v>10280</v>
+        <v>50280</v>
       </c>
       <c r="B281">
         <v>10006</v>
       </c>
       <c r="C281">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D281" t="s">
         <v>30</v>
@@ -13564,13 +13557,13 @@
     </row>
     <row r="282" spans="1:9">
       <c r="A282">
-        <v>10281</v>
+        <v>50281</v>
       </c>
       <c r="B282">
         <v>10006</v>
       </c>
       <c r="C282">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D282" t="s">
         <v>1074</v>
@@ -13593,13 +13586,13 @@
     </row>
     <row r="283" spans="1:9">
       <c r="A283">
-        <v>10282</v>
+        <v>50282</v>
       </c>
       <c r="B283">
         <v>10006</v>
       </c>
       <c r="C283">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
@@ -13622,13 +13615,13 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284">
-        <v>10283</v>
+        <v>50283</v>
       </c>
       <c r="B284">
         <v>10006</v>
       </c>
       <c r="C284">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D284" t="s">
         <v>1081</v>
@@ -13651,13 +13644,13 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285">
-        <v>10284</v>
+        <v>50284</v>
       </c>
       <c r="B285">
         <v>10006</v>
       </c>
       <c r="C285">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D285" t="s">
         <v>1085</v>
@@ -13680,13 +13673,13 @@
     </row>
     <row r="286" spans="1:9">
       <c r="A286">
-        <v>10285</v>
+        <v>50285</v>
       </c>
       <c r="B286">
         <v>10006</v>
       </c>
       <c r="C286">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D286" t="s">
         <v>1089</v>
@@ -13709,13 +13702,13 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287">
-        <v>10286</v>
+        <v>50286</v>
       </c>
       <c r="B287">
         <v>10006</v>
       </c>
       <c r="C287">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D287" t="s">
         <v>402</v>
@@ -13738,13 +13731,13 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288">
-        <v>10287</v>
+        <v>50287</v>
       </c>
       <c r="B288">
         <v>10006</v>
       </c>
       <c r="C288">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D288" t="s">
         <v>1095</v>
@@ -13767,13 +13760,13 @@
     </row>
     <row r="289" spans="1:9">
       <c r="A289">
-        <v>10288</v>
+        <v>50288</v>
       </c>
       <c r="B289">
         <v>10006</v>
       </c>
       <c r="C289">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D289" t="s">
         <v>1099</v>
@@ -13796,13 +13789,13 @@
     </row>
     <row r="290" spans="1:9">
       <c r="A290">
-        <v>10289</v>
+        <v>50289</v>
       </c>
       <c r="B290">
         <v>10006</v>
       </c>
       <c r="C290">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D290" t="s">
         <v>1103</v>
@@ -13825,13 +13818,13 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291">
-        <v>10290</v>
+        <v>50290</v>
       </c>
       <c r="B291">
         <v>10006</v>
       </c>
       <c r="C291">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D291" t="s">
         <v>1107</v>
@@ -13854,13 +13847,13 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292">
-        <v>10291</v>
+        <v>50291</v>
       </c>
       <c r="B292">
         <v>10006</v>
       </c>
       <c r="C292">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D292" t="s">
         <v>1111</v>
@@ -13883,13 +13876,13 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293">
-        <v>10292</v>
+        <v>50292</v>
       </c>
       <c r="B293">
         <v>10006</v>
       </c>
       <c r="C293">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D293" t="s">
         <v>1115</v>
@@ -13912,13 +13905,13 @@
     </row>
     <row r="294" spans="1:9">
       <c r="A294">
-        <v>10293</v>
+        <v>50293</v>
       </c>
       <c r="B294">
         <v>10006</v>
       </c>
       <c r="C294">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D294" t="s">
         <v>1119</v>
@@ -13941,13 +13934,13 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295">
-        <v>10294</v>
+        <v>50294</v>
       </c>
       <c r="B295">
         <v>10006</v>
       </c>
       <c r="C295">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D295" t="s">
         <v>1123</v>
@@ -13970,13 +13963,13 @@
     </row>
     <row r="296" spans="1:9">
       <c r="A296">
-        <v>10295</v>
+        <v>50295</v>
       </c>
       <c r="B296">
         <v>10006</v>
       </c>
       <c r="C296">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D296" t="s">
         <v>1127</v>
@@ -13999,13 +13992,13 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297">
-        <v>10296</v>
+        <v>50296</v>
       </c>
       <c r="B297">
         <v>10006</v>
       </c>
       <c r="C297">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D297" t="s">
         <v>1131</v>
@@ -14028,13 +14021,13 @@
     </row>
     <row r="298" spans="1:9">
       <c r="A298">
-        <v>10297</v>
+        <v>50297</v>
       </c>
       <c r="B298">
         <v>10006</v>
       </c>
       <c r="C298">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D298" t="s">
         <v>1135</v>
@@ -14057,13 +14050,13 @@
     </row>
     <row r="299" spans="1:9">
       <c r="A299">
-        <v>10298</v>
+        <v>50298</v>
       </c>
       <c r="B299">
         <v>10006</v>
       </c>
       <c r="C299">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D299" t="s">
         <v>1139</v>
@@ -14086,13 +14079,13 @@
     </row>
     <row r="300" spans="1:9">
       <c r="A300">
-        <v>10299</v>
+        <v>50299</v>
       </c>
       <c r="B300">
         <v>10006</v>
       </c>
       <c r="C300">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D300" t="s">
         <v>1143</v>
@@ -14115,13 +14108,13 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301">
-        <v>10300</v>
+        <v>50300</v>
       </c>
       <c r="B301">
         <v>10006</v>
       </c>
       <c r="C301">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D301" t="s">
         <v>1147</v>
@@ -14144,13 +14137,13 @@
     </row>
     <row r="302" spans="1:9">
       <c r="A302">
-        <v>10301</v>
+        <v>50301</v>
       </c>
       <c r="B302">
         <v>10006</v>
       </c>
       <c r="C302">
-        <v>10018</v>
+        <v>20018</v>
       </c>
       <c r="D302" t="s">
         <v>1151</v>
@@ -14173,13 +14166,13 @@
     </row>
     <row r="303" spans="1:9">
       <c r="A303">
-        <v>10302</v>
+        <v>50302</v>
       </c>
       <c r="B303">
         <v>10006</v>
       </c>
       <c r="C303">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D303" t="s">
         <v>29</v>
@@ -14202,13 +14195,13 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304">
-        <v>10303</v>
+        <v>50303</v>
       </c>
       <c r="B304">
         <v>10006</v>
       </c>
       <c r="C304">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D304" t="s">
         <v>1135</v>
@@ -14231,13 +14224,13 @@
     </row>
     <row r="305" spans="1:9">
       <c r="A305">
-        <v>10304</v>
+        <v>50304</v>
       </c>
       <c r="B305">
         <v>10006</v>
       </c>
       <c r="C305">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D305" t="s">
         <v>1095</v>
@@ -14260,13 +14253,13 @@
     </row>
     <row r="306" spans="1:9">
       <c r="A306">
-        <v>10305</v>
+        <v>50305</v>
       </c>
       <c r="B306">
         <v>10006</v>
       </c>
       <c r="C306">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D306" t="s">
         <v>1155</v>
@@ -14289,13 +14282,13 @@
     </row>
     <row r="307" spans="1:9">
       <c r="A307">
-        <v>10306</v>
+        <v>50306</v>
       </c>
       <c r="B307">
         <v>10006</v>
       </c>
       <c r="C307">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D307" t="s">
         <v>1099</v>
@@ -14318,13 +14311,13 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308">
-        <v>10307</v>
+        <v>50307</v>
       </c>
       <c r="B308">
         <v>10006</v>
       </c>
       <c r="C308">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D308" t="s">
         <v>1143</v>
@@ -14347,13 +14340,13 @@
     </row>
     <row r="309" spans="1:9">
       <c r="A309">
-        <v>10308</v>
+        <v>50308</v>
       </c>
       <c r="B309">
         <v>10006</v>
       </c>
       <c r="C309">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D309" t="s">
         <v>1159</v>
@@ -14376,13 +14369,13 @@
     </row>
     <row r="310" spans="1:9">
       <c r="A310">
-        <v>10309</v>
+        <v>50309</v>
       </c>
       <c r="B310">
         <v>10006</v>
       </c>
       <c r="C310">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D310" t="s">
         <v>1107</v>
@@ -14405,13 +14398,13 @@
     </row>
     <row r="311" spans="1:9">
       <c r="A311">
-        <v>10310</v>
+        <v>50310</v>
       </c>
       <c r="B311">
         <v>10006</v>
       </c>
       <c r="C311">
-        <v>10019</v>
+        <v>20019</v>
       </c>
       <c r="D311" t="s">
         <v>1164</v>
@@ -14434,13 +14427,13 @@
     </row>
     <row r="312" spans="1:9">
       <c r="A312">
-        <v>10311</v>
+        <v>50311</v>
       </c>
       <c r="B312">
         <v>10006</v>
       </c>
       <c r="C312">
-        <v>10020</v>
+        <v>20020</v>
       </c>
       <c r="D312" t="s">
         <v>30</v>
@@ -14463,13 +14456,13 @@
     </row>
     <row r="313" spans="1:9">
       <c r="A313">
-        <v>10312</v>
+        <v>50312</v>
       </c>
       <c r="B313">
         <v>10006</v>
       </c>
       <c r="C313">
-        <v>10020</v>
+        <v>20020</v>
       </c>
       <c r="D313" t="s">
         <v>1123</v>
@@ -14492,13 +14485,13 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314">
-        <v>10313</v>
+        <v>50313</v>
       </c>
       <c r="B314">
         <v>10006</v>
       </c>
       <c r="C314">
-        <v>10020</v>
+        <v>20020</v>
       </c>
       <c r="D314" t="s">
         <v>1139</v>
@@ -14521,13 +14514,13 @@
     </row>
     <row r="315" spans="1:9">
       <c r="A315">
-        <v>10314</v>
+        <v>50314</v>
       </c>
       <c r="B315">
         <v>10006</v>
       </c>
       <c r="C315">
-        <v>10020</v>
+        <v>20020</v>
       </c>
       <c r="D315" t="s">
         <v>1151</v>
@@ -14550,13 +14543,13 @@
     </row>
     <row r="316" spans="1:9">
       <c r="A316">
-        <v>10315</v>
+        <v>50315</v>
       </c>
       <c r="B316">
         <v>10006</v>
       </c>
       <c r="C316">
-        <v>10020</v>
+        <v>20020</v>
       </c>
       <c r="D316" t="s">
         <v>1168</v>
@@ -14579,13 +14572,13 @@
     </row>
     <row r="317" spans="1:9">
       <c r="A317">
-        <v>10316</v>
+        <v>50316</v>
       </c>
       <c r="B317">
         <v>10006</v>
       </c>
       <c r="C317">
-        <v>10020</v>
+        <v>20020</v>
       </c>
       <c r="D317" t="s">
         <v>1127</v>
@@ -14608,13 +14601,13 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318">
-        <v>10317</v>
+        <v>50317</v>
       </c>
       <c r="B318">
         <v>10007</v>
       </c>
       <c r="C318">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D318" t="s">
         <v>1172</v>
@@ -14637,13 +14630,13 @@
     </row>
     <row r="319" spans="1:9">
       <c r="A319">
-        <v>10318</v>
+        <v>50318</v>
       </c>
       <c r="B319">
         <v>10007</v>
       </c>
       <c r="C319">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D319" t="s">
         <v>1176</v>
@@ -14666,13 +14659,13 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320">
-        <v>10319</v>
+        <v>50319</v>
       </c>
       <c r="B320">
         <v>10007</v>
       </c>
       <c r="C320">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D320" t="s">
         <v>1180</v>
@@ -14695,13 +14688,13 @@
     </row>
     <row r="321" spans="1:9">
       <c r="A321">
-        <v>10320</v>
+        <v>50320</v>
       </c>
       <c r="B321">
         <v>10007</v>
       </c>
       <c r="C321">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D321" t="s">
         <v>1184</v>
@@ -14724,13 +14717,13 @@
     </row>
     <row r="322" spans="1:9">
       <c r="A322">
-        <v>10321</v>
+        <v>50321</v>
       </c>
       <c r="B322">
         <v>10007</v>
       </c>
       <c r="C322">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D322" t="s">
         <v>1188</v>
@@ -14753,13 +14746,13 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323">
-        <v>10322</v>
+        <v>50322</v>
       </c>
       <c r="B323">
         <v>10007</v>
       </c>
       <c r="C323">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D323" t="s">
         <v>1192</v>
@@ -14782,13 +14775,13 @@
     </row>
     <row r="324" spans="1:9">
       <c r="A324">
-        <v>10323</v>
+        <v>50323</v>
       </c>
       <c r="B324">
         <v>10007</v>
       </c>
       <c r="C324">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D324" t="s">
         <v>1196</v>
@@ -14811,13 +14804,13 @@
     </row>
     <row r="325" spans="1:9">
       <c r="A325">
-        <v>10324</v>
+        <v>50324</v>
       </c>
       <c r="B325">
         <v>10007</v>
       </c>
       <c r="C325">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D325" t="s">
         <v>1198</v>
@@ -14840,13 +14833,13 @@
     </row>
     <row r="326" spans="1:9">
       <c r="A326">
-        <v>10325</v>
+        <v>50325</v>
       </c>
       <c r="B326">
         <v>10007</v>
       </c>
       <c r="C326">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D326" t="s">
         <v>1202</v>
@@ -14869,13 +14862,13 @@
     </row>
     <row r="327" spans="1:9">
       <c r="A327">
-        <v>10326</v>
+        <v>50326</v>
       </c>
       <c r="B327">
         <v>10007</v>
       </c>
       <c r="C327">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D327" t="s">
         <v>1206</v>
@@ -14898,13 +14891,13 @@
     </row>
     <row r="328" spans="1:9">
       <c r="A328">
-        <v>10327</v>
+        <v>50327</v>
       </c>
       <c r="B328">
         <v>10007</v>
       </c>
       <c r="C328">
-        <v>10021</v>
+        <v>20021</v>
       </c>
       <c r="D328" t="s">
         <v>1210</v>
@@ -14927,13 +14920,13 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329">
-        <v>10328</v>
+        <v>50328</v>
       </c>
       <c r="B329">
         <v>10007</v>
       </c>
       <c r="C329">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D329" t="s">
         <v>1214</v>
@@ -14956,13 +14949,13 @@
     </row>
     <row r="330" spans="1:9">
       <c r="A330">
-        <v>10329</v>
+        <v>50329</v>
       </c>
       <c r="B330">
         <v>10007</v>
       </c>
       <c r="C330">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D330" t="s">
         <v>1218</v>
@@ -14985,13 +14978,13 @@
     </row>
     <row r="331" spans="1:9">
       <c r="A331">
-        <v>10330</v>
+        <v>50330</v>
       </c>
       <c r="B331">
         <v>10007</v>
       </c>
       <c r="C331">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D331" t="s">
         <v>1222</v>
@@ -15014,13 +15007,13 @@
     </row>
     <row r="332" spans="1:9">
       <c r="A332">
-        <v>10331</v>
+        <v>50331</v>
       </c>
       <c r="B332">
         <v>10007</v>
       </c>
       <c r="C332">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D332" t="s">
         <v>1226</v>
@@ -15043,13 +15036,13 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333">
-        <v>10332</v>
+        <v>50332</v>
       </c>
       <c r="B333">
         <v>10007</v>
       </c>
       <c r="C333">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D333" t="s">
         <v>1230</v>
@@ -15072,13 +15065,13 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334">
-        <v>10333</v>
+        <v>50333</v>
       </c>
       <c r="B334">
         <v>10007</v>
       </c>
       <c r="C334">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D334" t="s">
         <v>1234</v>
@@ -15101,13 +15094,13 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335">
-        <v>10334</v>
+        <v>50334</v>
       </c>
       <c r="B335">
         <v>10007</v>
       </c>
       <c r="C335">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D335" t="s">
         <v>1238</v>
@@ -15130,13 +15123,13 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336">
-        <v>10335</v>
+        <v>50335</v>
       </c>
       <c r="B336">
         <v>10007</v>
       </c>
       <c r="C336">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D336" t="s">
         <v>1242</v>
@@ -15159,13 +15152,13 @@
     </row>
     <row r="337" spans="1:9">
       <c r="A337">
-        <v>10336</v>
+        <v>50336</v>
       </c>
       <c r="B337">
         <v>10007</v>
       </c>
       <c r="C337">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D337" t="s">
         <v>1246</v>
@@ -15188,13 +15181,13 @@
     </row>
     <row r="338" spans="1:9">
       <c r="A338">
-        <v>10337</v>
+        <v>50337</v>
       </c>
       <c r="B338">
         <v>10007</v>
       </c>
       <c r="C338">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D338" t="s">
         <v>1250</v>
@@ -15217,13 +15210,13 @@
     </row>
     <row r="339" spans="1:9">
       <c r="A339">
-        <v>10338</v>
+        <v>50338</v>
       </c>
       <c r="B339">
         <v>10007</v>
       </c>
       <c r="C339">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D339" t="s">
         <v>1254</v>
@@ -15246,13 +15239,13 @@
     </row>
     <row r="340" spans="1:9">
       <c r="A340">
-        <v>10339</v>
+        <v>50339</v>
       </c>
       <c r="B340">
         <v>10007</v>
       </c>
       <c r="C340">
-        <v>10022</v>
+        <v>20022</v>
       </c>
       <c r="D340" t="s">
         <v>1258</v>
@@ -15275,13 +15268,13 @@
     </row>
     <row r="341" spans="1:9">
       <c r="A341">
-        <v>10340</v>
+        <v>50340</v>
       </c>
       <c r="B341">
         <v>10008</v>
       </c>
       <c r="C341">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D341" t="s">
         <v>1262</v>
@@ -15304,13 +15297,13 @@
     </row>
     <row r="342" spans="1:9">
       <c r="A342">
-        <v>10341</v>
+        <v>50341</v>
       </c>
       <c r="B342">
         <v>10008</v>
       </c>
       <c r="C342">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D342" t="s">
         <v>1266</v>
@@ -15333,13 +15326,13 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343">
-        <v>10342</v>
+        <v>50342</v>
       </c>
       <c r="B343">
         <v>10008</v>
       </c>
       <c r="C343">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D343" t="s">
         <v>1270</v>
@@ -15362,13 +15355,13 @@
     </row>
     <row r="344" spans="1:9">
       <c r="A344">
-        <v>10343</v>
+        <v>50343</v>
       </c>
       <c r="B344">
         <v>10008</v>
       </c>
       <c r="C344">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D344" t="s">
         <v>1274</v>
@@ -15391,13 +15384,13 @@
     </row>
     <row r="345" spans="1:9">
       <c r="A345">
-        <v>10344</v>
+        <v>50344</v>
       </c>
       <c r="B345">
         <v>10008</v>
       </c>
       <c r="C345">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D345" t="s">
         <v>1278</v>
@@ -15420,13 +15413,13 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346">
-        <v>10345</v>
+        <v>50345</v>
       </c>
       <c r="B346">
         <v>10008</v>
       </c>
       <c r="C346">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D346" t="s">
         <v>1282</v>
@@ -15449,13 +15442,13 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347">
-        <v>10346</v>
+        <v>50346</v>
       </c>
       <c r="B347">
         <v>10008</v>
       </c>
       <c r="C347">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D347" t="s">
         <v>1286</v>
@@ -15478,13 +15471,13 @@
     </row>
     <row r="348" spans="1:9">
       <c r="A348">
-        <v>10347</v>
+        <v>50347</v>
       </c>
       <c r="B348">
         <v>10008</v>
       </c>
       <c r="C348">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D348" t="s">
         <v>1290</v>
@@ -15507,13 +15500,13 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349">
-        <v>10348</v>
+        <v>50348</v>
       </c>
       <c r="B349">
         <v>10008</v>
       </c>
       <c r="C349">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D349" t="s">
         <v>1294</v>
@@ -15536,13 +15529,13 @@
     </row>
     <row r="350" spans="1:9">
       <c r="A350">
-        <v>10349</v>
+        <v>50349</v>
       </c>
       <c r="B350">
         <v>10008</v>
       </c>
       <c r="C350">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D350" t="s">
         <v>1298</v>
@@ -15565,13 +15558,13 @@
     </row>
     <row r="351" spans="1:9">
       <c r="A351">
-        <v>10350</v>
+        <v>50350</v>
       </c>
       <c r="B351">
         <v>10008</v>
       </c>
       <c r="C351">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D351" t="s">
         <v>1302</v>
@@ -15594,13 +15587,13 @@
     </row>
     <row r="352" spans="1:9">
       <c r="A352">
-        <v>10351</v>
+        <v>50351</v>
       </c>
       <c r="B352">
         <v>10008</v>
       </c>
       <c r="C352">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D352" t="s">
         <v>1306</v>
@@ -15623,13 +15616,13 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353">
-        <v>10352</v>
+        <v>50352</v>
       </c>
       <c r="B353">
         <v>10008</v>
       </c>
       <c r="C353">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D353" t="s">
         <v>1310</v>
@@ -15652,13 +15645,13 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354">
-        <v>10353</v>
+        <v>50353</v>
       </c>
       <c r="B354">
         <v>10008</v>
       </c>
       <c r="C354">
-        <v>10023</v>
+        <v>20023</v>
       </c>
       <c r="D354" t="s">
         <v>1314</v>
@@ -15681,13 +15674,13 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355">
-        <v>10354</v>
+        <v>50354</v>
       </c>
       <c r="B355">
         <v>10008</v>
       </c>
       <c r="C355">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="D355" t="s">
         <v>1318</v>
@@ -15710,13 +15703,13 @@
     </row>
     <row r="356" spans="1:9">
       <c r="A356">
-        <v>10355</v>
+        <v>50355</v>
       </c>
       <c r="B356">
         <v>10008</v>
       </c>
       <c r="C356">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="D356" t="s">
         <v>1322</v>
@@ -15739,13 +15732,13 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357">
-        <v>10356</v>
+        <v>50356</v>
       </c>
       <c r="B357">
         <v>10008</v>
       </c>
       <c r="C357">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="D357" t="s">
         <v>1326</v>
@@ -15768,13 +15761,13 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358">
-        <v>10357</v>
+        <v>50357</v>
       </c>
       <c r="B358">
         <v>10008</v>
       </c>
       <c r="C358">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="D358" t="s">
         <v>1330</v>
@@ -15797,13 +15790,13 @@
     </row>
     <row r="359" spans="1:9">
       <c r="A359">
-        <v>10358</v>
+        <v>50358</v>
       </c>
       <c r="B359">
         <v>10008</v>
       </c>
       <c r="C359">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="D359" t="s">
         <v>1334</v>
@@ -15826,13 +15819,13 @@
     </row>
     <row r="360" spans="1:9">
       <c r="A360">
-        <v>10359</v>
+        <v>50359</v>
       </c>
       <c r="B360">
         <v>10008</v>
       </c>
       <c r="C360">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="D360" t="s">
         <v>1338</v>
@@ -15855,13 +15848,13 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361">
-        <v>10360</v>
+        <v>50360</v>
       </c>
       <c r="B361">
         <v>10008</v>
       </c>
       <c r="C361">
-        <v>10024</v>
+        <v>20024</v>
       </c>
       <c r="D361" t="s">
         <v>1342</v>
